--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem2/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem2/17/correct_predictions_17.xlsx
@@ -476,42 +476,42 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Calibrate IMU</t>
+          <t>IMU calibration required</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+          <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Calibrate IMU</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14-16</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -527,31 +527,31 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Critical low battery Return to home or land promptly .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>14-16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -566,52 +566,52 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Return to home or land promptly</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+          <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Incompatible firmware version</t>
+          <t>Return to home or land promptly</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -626,52 +626,52 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Go to Profile &gt; Settings to update firmware</t>
+          <t>Incompatible firmware version</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed Restart aircraft .</t>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed</t>
+          <t>Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -686,52 +686,52 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Gyroscope initialization failed</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Satellite positioning off Fly with Caution .</t>
+          <t>Gyroscope initialization failed Restart aircraft .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Satellite positioning off</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -746,52 +746,52 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fly with Caution</t>
+          <t>Satellite positioning off</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate Fly with caution .</t>
+          <t>Satellite positioning off Fly with Caution .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate</t>
+          <t>Fly with Caution</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -806,52 +806,52 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Visual positioning inaccurate</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Strong Interference Now Fly with caution .</t>
+          <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Strong Interference Now</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -866,42 +866,42 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Strong Interference Now</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
+          <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Please fly away or land with caution</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -926,42 +926,42 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone</t>
+          <t>Please fly away or land with caution</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>High wind velocity Fly with caution .</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>High wind velocity</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -986,52 +986,52 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>High wind velocity</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Critical low battery Recharge promptly .</t>
+          <t>High wind velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1046,52 +1046,52 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked Fly with caution .</t>
+          <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1106,52 +1106,52 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Vision sensor(s) blocked</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
+          <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Compass interference</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1166,52 +1166,52 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Compass interference</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+          <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1226,52 +1226,52 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Strong Interference Detected Be careful when flying long distances .</t>
+          <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Strong Interference Detected</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1286,17 +1286,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Be careful when flying long distances</t>
+          <t>Strong Interference Detected</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1307,31 +1307,31 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
+          <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Camera sensor error</t>
+          <t>Be careful when flying long distances</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1346,22 +1346,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Contact DJI Support to arrange for repairs</t>
+          <t>Camera sensor error</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1376,52 +1376,52 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Hardware malfunction</t>
+          <t>Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
+          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Hardware malfunction</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1436,52 +1436,52 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly Detach battery and reinstall it .</t>
+          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Detach battery and reinstall it</t>
+          <t>Aircraft antenna satellite signal searching error</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1496,37 +1496,37 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly</t>
+          <t>Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Running Flight Simulator Restart aircraft to take off .</t>
+          <t>Battery installed incorrectly Detach battery and reinstall it .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Running Flight Simulator</t>
+          <t>Battery installed incorrectly</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1547,56 +1547,56 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Restart aircraft to take off</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Running Flight Simulator</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3-22</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1607,21 +1607,21 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2147,21 +2147,21 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+          <t>GPS module error Restart aircraft .</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Unknown Error</t>
+          <t>GPS module error</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2186,52 +2186,52 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>GPS module error</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>GPS module error Restart aircraft .</t>
+          <t>Large Wind Velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Large Wind Velocity</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2246,52 +2246,52 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Large Wind Velocity</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Large Wind Velocity Fly with caution .</t>
+          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2306,42 +2306,42 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Lightly press it to adjust</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2366,42 +2366,42 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Lightly press it to adjust</t>
+          <t>Remote Controller Right Dial Locked</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
+          <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked</t>
+          <t>Insufficient SD card space</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2426,17 +2426,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Insufficient SD card space</t>
+          <t>Change card or delete files</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2447,26 +2447,26 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
+          <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Change card or delete files</t>
+          <t>Aircraft power insufficient</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2486,42 +2486,42 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient Fly with caution .</t>
+          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2546,37 +2546,37 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Check map to find Recommended Zones</t>
+          <t>Aircraft in Restricted Zones</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
+          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones</t>
+          <t>Downward vision sensor error</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2606,52 +2606,52 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Downward vision sensor error</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
+          <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2666,52 +2666,52 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Compass data error Please contact DJI Support .</t>
+          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>Extended flight distance detected</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2726,42 +2726,42 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Extended flight distance detected</t>
+          <t>Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
+          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Altitude Less than nnn</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2777,21 +2777,21 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
+          <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn</t>
+          <t>Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-10</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2816,52 +2816,52 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Cool down the monitor to prevent overheating</t>
+          <t>CrystalSky is too hot</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>4-10</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
+          <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2876,47 +2876,47 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Aircraft takeoff altitude error</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error Restart aircraft .</t>
+          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error</t>
+          <t>Not suitable for shooting a 4K video</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem2/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem2/17/correct_predictions_17.xlsx
@@ -476,42 +476,42 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>IMU calibration required</t>
+          <t>Calibrate IMU</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IMU calibration required Calibrate IMU .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Calibrate IMU</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>14-16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -527,31 +527,31 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+          <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14-16</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -566,52 +566,52 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>Return to home or land promptly</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Critical low battery Return to home or land promptly .</t>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Return to home or land promptly</t>
+          <t>Incompatible firmware version</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -626,52 +626,52 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Incompatible firmware version</t>
+          <t>Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+          <t>Gyroscope initialization failed Restart aircraft .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Go to Profile &gt; Settings to update firmware</t>
+          <t>Gyroscope initialization failed</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -686,52 +686,52 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed Restart aircraft .</t>
+          <t>Satellite positioning off Fly with Caution .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Satellite positioning off</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -746,52 +746,52 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Satellite positioning off</t>
+          <t>Fly with Caution</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Satellite positioning off Fly with Caution .</t>
+          <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fly with Caution</t>
+          <t>Visual positioning inaccurate</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -806,52 +806,52 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate Fly with caution .</t>
+          <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Strong Interference Now</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -866,42 +866,42 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Strong Interference Now</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Strong Interference Now Fly with caution .</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Please fly away or land with caution</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -926,42 +926,42 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Please fly away or land with caution</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
+          <t>High wind velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone</t>
+          <t>High wind velocity</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -986,52 +986,52 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>High wind velocity</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>High wind velocity Fly with caution .</t>
+          <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1046,52 +1046,52 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Critical low battery Recharge promptly .</t>
+          <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Vision sensor(s) blocked</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1106,52 +1106,52 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked Fly with caution .</t>
+          <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Compass interference</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1166,52 +1166,52 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Compass interference</t>
+          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
+          <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1226,52 +1226,52 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+          <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Strong Interference Detected</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1286,17 +1286,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Strong Interference Detected</t>
+          <t>Be careful when flying long distances</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1307,31 +1307,31 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Strong Interference Detected Be careful when flying long distances .</t>
+          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Be careful when flying long distances</t>
+          <t>Camera sensor error</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1346,22 +1346,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Camera sensor error</t>
+          <t>Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1376,52 +1376,52 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Contact DJI Support to arrange for repairs</t>
+          <t>Hardware malfunction</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
+          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Hardware malfunction</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1436,52 +1436,52 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Aircraft antenna satellite signal searching error</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
+          <t>Battery installed incorrectly Detach battery and reinstall it .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error</t>
+          <t>Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1496,37 +1496,37 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Detach battery and reinstall it</t>
+          <t>Battery installed incorrectly</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly Detach battery and reinstall it .</t>
+          <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly</t>
+          <t>Running Flight Simulator</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1547,56 +1547,56 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Running Flight Simulator Restart aircraft to take off .</t>
+          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Restart aircraft to take off</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Running Flight Simulator Restart aircraft to take off .</t>
+          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Running Flight Simulator</t>
+          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-22</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1607,21 +1607,21 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Failed to lower or pack up landing gear</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2147,21 +2147,21 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>GPS module error Restart aircraft .</t>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>GPS module error</t>
+          <t>Unknown Error</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2186,52 +2186,52 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>GPS module error</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Large Wind Velocity Fly with caution .</t>
+          <t>GPS module error Restart aircraft .</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Large Wind Velocity</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2246,52 +2246,52 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Large Wind Velocity</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Large Wind Velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2306,42 +2306,42 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
+          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Lightly press it to adjust</t>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2366,42 +2366,42 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked</t>
+          <t>Lightly press it to adjust</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
+          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Insufficient SD card space</t>
+          <t>Remote Controller Right Dial Locked</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2426,17 +2426,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Change card or delete files</t>
+          <t>Insufficient SD card space</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2447,26 +2447,26 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient Fly with caution .</t>
+          <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient</t>
+          <t>Change card or delete files</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2486,42 +2486,42 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Aircraft power insufficient</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
+          <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Check map to find Recommended Zones</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2546,37 +2546,37 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones</t>
+          <t>Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
+          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Downward vision sensor error</t>
+          <t>Aircraft in Restricted Zones</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2606,52 +2606,52 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Downward vision sensor error</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Compass data error Please contact DJI Support .</t>
+          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2666,52 +2666,52 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
+          <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Extended flight distance detected</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2726,42 +2726,42 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Extended flight distance detected</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
+          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn</t>
+          <t>Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2777,21 +2777,21 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
+          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Cool down the monitor to prevent overheating</t>
+          <t>Altitude Less than nnn</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>4-10</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2816,52 +2816,52 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot</t>
+          <t>Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-10</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error Restart aircraft .</t>
+          <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>CrystalSky is too hot</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2876,47 +2876,47 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
+          <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Not suitable for shooting a 4K video</t>
+          <t>Aircraft takeoff altitude error</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
